--- a/13/1/2/1/Operaciones financieras 2005 a 2021 - Trimestral.xlsx
+++ b/13/1/2/1/Operaciones financieras 2005 a 2021 - Trimestral.xlsx
@@ -6440,7 +6440,7 @@
         <v>89</v>
       </c>
       <c r="B66">
-        <v>-691939</v>
+        <v>-711640</v>
       </c>
       <c r="C66">
         <v>-498438</v>
@@ -6464,7 +6464,7 @@
         <v>-13234</v>
       </c>
       <c r="J66">
-        <v>566033</v>
+        <v>546332</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>796111</v>
+        <v>796120</v>
       </c>
       <c r="Q66">
         <v>3098925</v>
@@ -6515,10 +6515,10 @@
         <v>3069594</v>
       </c>
       <c r="AA66">
-        <v>-79486</v>
+        <v>-79477</v>
       </c>
       <c r="AB66">
-        <v>-1488050</v>
+        <v>-1507760</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6529,7 +6529,7 @@
         <v>90</v>
       </c>
       <c r="B67">
-        <v>-691645</v>
+        <v>-671945</v>
       </c>
       <c r="C67">
         <v>586638</v>
@@ -6553,7 +6553,7 @@
         <v>2987</v>
       </c>
       <c r="J67">
-        <v>798558</v>
+        <v>818259</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>3522411</v>
+        <v>3522420</v>
       </c>
       <c r="Q67">
         <v>2435236</v>
@@ -6604,10 +6604,10 @@
         <v>1350852</v>
       </c>
       <c r="AA67">
-        <v>-77349</v>
+        <v>-77340</v>
       </c>
       <c r="AB67">
-        <v>-4214056</v>
+        <v>-4194365</v>
       </c>
       <c r="AC67">
         <v>-2</v>

--- a/13/1/2/1/Operaciones financieras 2005 a 2021 - Trimestral.xlsx
+++ b/13/1/2/1/Operaciones financieras 2005 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6482,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>796120</v>
+        <v>796152</v>
       </c>
       <c r="Q66">
         <v>3098925</v>
@@ -6515,10 +6518,10 @@
         <v>3069594</v>
       </c>
       <c r="AA66">
-        <v>-79477</v>
+        <v>-79444</v>
       </c>
       <c r="AB66">
-        <v>-1507760</v>
+        <v>-1507792</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6571,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>3522420</v>
+        <v>3522453</v>
       </c>
       <c r="Q67">
         <v>2435236</v>
@@ -6604,13 +6607,102 @@
         <v>1350852</v>
       </c>
       <c r="AA67">
-        <v>-77340</v>
+        <v>-77307</v>
       </c>
       <c r="AB67">
-        <v>-4194365</v>
+        <v>-4194398</v>
       </c>
       <c r="AC67">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68">
+        <v>118912</v>
+      </c>
+      <c r="C68">
+        <v>205751</v>
+      </c>
+      <c r="D68">
+        <v>459691</v>
+      </c>
+      <c r="E68">
+        <v>253940</v>
+      </c>
+      <c r="F68">
+        <v>-509018</v>
+      </c>
+      <c r="G68">
+        <v>1502936</v>
+      </c>
+      <c r="H68">
+        <v>2011954</v>
+      </c>
+      <c r="I68">
+        <v>28689</v>
+      </c>
+      <c r="J68">
+        <v>393490</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>8035464</v>
+      </c>
+      <c r="Q68">
+        <v>5566866</v>
+      </c>
+      <c r="R68">
+        <v>5928008</v>
+      </c>
+      <c r="S68">
+        <v>5925987</v>
+      </c>
+      <c r="T68">
+        <v>2021</v>
+      </c>
+      <c r="U68">
+        <v>361142</v>
+      </c>
+      <c r="V68">
+        <v>2555672</v>
+      </c>
+      <c r="W68">
+        <v>4650816</v>
+      </c>
+      <c r="X68">
+        <v>4650816</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>2095144</v>
+      </c>
+      <c r="AA68">
+        <v>-87075</v>
+      </c>
+      <c r="AB68">
+        <v>-7916552</v>
+      </c>
+      <c r="AC68">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
